--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c203_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c203_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -367,10 +391,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -414,28 +438,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="3">
+      <c r="A10" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="3">
+      <c r="C10" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D10" t="s" s="3">
+      <c r="D10" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="3">
+      <c r="E10" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="3">
+      <c r="F10" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="3">
+      <c r="G10" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="3">
+      <c r="H10" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -460,28 +484,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="C12" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="3">
+      <c r="I12" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -714,10 +738,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -761,28 +785,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="3">
+      <c r="A22" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="B22" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="3">
+      <c r="C22" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="3">
+      <c r="D22" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="3">
+      <c r="E22" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="3">
+      <c r="F22" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="3">
+      <c r="G22" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="3">
+      <c r="H22" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -807,28 +831,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="3">
+      <c r="C24" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="3">
+      <c r="D24" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="F24" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="3">
+      <c r="G24" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="3">
+      <c r="H24" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="3">
+      <c r="I24" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1032,10 +1056,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1079,28 +1103,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="3">
+      <c r="A33" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="3">
+      <c r="B33" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="3">
+      <c r="C33" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="3">
+      <c r="D33" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="3">
+      <c r="F33" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="3">
+      <c r="G33" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="3">
+      <c r="H33" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1125,28 +1149,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="3">
+      <c r="B35" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="3">
+      <c r="C35" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="3">
+      <c r="D35" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="E35" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="3">
+      <c r="F35" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="3">
+      <c r="G35" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="3">
+      <c r="H35" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="3">
+      <c r="I35" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1234,10 +1258,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1281,28 +1305,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="3">
+      <c r="A40" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="3">
+      <c r="B40" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="3">
+      <c r="C40" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D40" t="s" s="3">
+      <c r="D40" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="3">
+      <c r="F40" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="3">
+      <c r="G40" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="3">
+      <c r="H40" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1327,28 +1351,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="3">
+      <c r="B42" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="3">
+      <c r="C42" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="3">
+      <c r="D42" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="3">
+      <c r="E42" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="3">
+      <c r="F42" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="3">
+      <c r="G42" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="3">
+      <c r="H42" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="3">
+      <c r="I42" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1436,10 +1460,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1483,28 +1507,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="3">
+      <c r="A47" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="3">
+      <c r="B47" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="3">
+      <c r="C47" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D47" t="s" s="3">
+      <c r="D47" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="E47" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="3">
+      <c r="F47" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="3">
+      <c r="G47" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="3">
+      <c r="H47" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1529,28 +1553,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="3">
+      <c r="B49" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="3">
+      <c r="C49" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="3">
+      <c r="D49" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="3">
+      <c r="E49" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="3">
+      <c r="F49" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="3">
+      <c r="G49" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="3">
+      <c r="H49" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="3">
+      <c r="I49" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1667,10 +1691,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1714,28 +1738,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="3">
+      <c r="A55" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="3">
+      <c r="B55" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="3">
+      <c r="C55" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D55" t="s" s="3">
+      <c r="D55" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="3">
+      <c r="F55" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="3">
+      <c r="G55" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="3">
+      <c r="H55" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1760,28 +1784,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="3">
+      <c r="B57" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="3">
+      <c r="C57" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="3">
+      <c r="D57" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="3">
+      <c r="E57" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="3">
+      <c r="F57" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="3">
+      <c r="G57" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="3">
+      <c r="H57" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="3">
+      <c r="I57" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2043,10 +2067,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="J66" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K66" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2090,28 +2114,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="3">
+      <c r="A68" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="3">
+      <c r="B68" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="3">
+      <c r="C68" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D68" t="s" s="3">
+      <c r="D68" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="3">
+      <c r="F68" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="3">
+      <c r="G68" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="3">
+      <c r="H68" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2136,28 +2160,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="3">
+      <c r="B70" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="3">
+      <c r="C70" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="3">
+      <c r="D70" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="E70" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="3">
+      <c r="F70" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="3">
+      <c r="G70" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="3">
+      <c r="H70" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="3">
+      <c r="I70" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2245,10 +2269,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="J73" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K73" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2292,28 +2316,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="3">
+      <c r="A75" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="3">
+      <c r="B75" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="3">
+      <c r="C75" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D75" t="s" s="3">
+      <c r="D75" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="3">
+      <c r="E75" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="3">
+      <c r="F75" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="3">
+      <c r="G75" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="3">
+      <c r="H75" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2338,28 +2362,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="3">
+      <c r="B77" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="3">
+      <c r="C77" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="3">
+      <c r="D77" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="3">
+      <c r="E77" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="3">
+      <c r="F77" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="3">
+      <c r="G77" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="3">
+      <c r="H77" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="3">
+      <c r="I77" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2621,10 +2645,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J86" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K86" s="3" t="s">
+      <c r="K86" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2668,28 +2692,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="3">
+      <c r="A88" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="3">
+      <c r="B88" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="3">
+      <c r="C88" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D88" t="s" s="3">
+      <c r="D88" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="3">
+      <c r="E88" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="3">
+      <c r="F88" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="3">
+      <c r="G88" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="3">
+      <c r="H88" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2714,28 +2738,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="3">
+      <c r="B90" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="3">
+      <c r="C90" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="3">
+      <c r="D90" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="3">
+      <c r="E90" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="3">
+      <c r="F90" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="3">
+      <c r="G90" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="3">
+      <c r="H90" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="3">
+      <c r="I90" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2997,10 +3021,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="J99" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K99" s="3" t="s">
+      <c r="K99" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3044,28 +3068,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="3">
+      <c r="A101" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="3">
+      <c r="C101" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D101" t="s" s="3">
+      <c r="D101" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3090,28 +3114,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="3">
+      <c r="B103" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="3">
+      <c r="C103" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="3">
+      <c r="D103" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="3">
+      <c r="F103" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="3">
+      <c r="G103" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="3">
+      <c r="H103" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="3">
+      <c r="I103" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3460,10 +3484,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="3" t="s">
+      <c r="J115" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K115" s="3" t="s">
+      <c r="K115" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3507,28 +3531,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="3">
+      <c r="A117" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="3">
+      <c r="B117" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="3">
+      <c r="C117" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D117" t="s" s="3">
+      <c r="D117" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="3">
+      <c r="F117" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="3">
+      <c r="G117" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="3">
+      <c r="H117" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3553,28 +3577,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="3">
+      <c r="B119" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="3">
+      <c r="C119" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="3">
+      <c r="D119" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="3">
+      <c r="E119" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="3">
+      <c r="F119" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="3">
+      <c r="G119" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="3">
+      <c r="H119" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="3">
+      <c r="I119" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3807,10 +3831,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="3" t="s">
+      <c r="J127" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K127" s="3" t="s">
+      <c r="K127" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3854,28 +3878,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="3">
+      <c r="A129" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="3">
+      <c r="B129" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="3">
+      <c r="C129" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D129" t="s" s="3">
+      <c r="D129" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="3">
+      <c r="F129" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="3">
+      <c r="G129" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="3">
+      <c r="H129" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3900,28 +3924,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="3">
+      <c r="B131" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="3">
+      <c r="C131" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="3">
+      <c r="D131" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="3">
+      <c r="F131" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="3">
+      <c r="G131" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="3">
+      <c r="H131" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="3">
+      <c r="I131" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4009,10 +4033,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="3" t="s">
+      <c r="J134" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K134" s="3" t="s">
+      <c r="K134" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4056,28 +4080,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="3">
+      <c r="A136" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="3">
+      <c r="B136" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="3">
+      <c r="C136" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D136" t="s" s="3">
+      <c r="D136" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="3">
+      <c r="F136" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="3">
+      <c r="G136" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="3">
+      <c r="H136" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4102,28 +4126,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="3">
+      <c r="C138" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="3">
+      <c r="D138" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="3">
+      <c r="I138" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4240,10 +4264,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="3" t="s">
+      <c r="J142" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K142" s="3" t="s">
+      <c r="K142" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4287,28 +4311,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="3">
+      <c r="A144" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="3">
+      <c r="B144" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="3">
+      <c r="C144" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D144" t="s" s="3">
+      <c r="D144" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="3">
+      <c r="E144" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="3">
+      <c r="F144" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="3">
+      <c r="G144" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="3">
+      <c r="H144" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4333,28 +4357,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="3">
+      <c r="B146" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="3">
+      <c r="C146" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="3">
+      <c r="D146" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="3">
+      <c r="F146" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="3">
+      <c r="G146" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="3">
+      <c r="H146" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="3">
+      <c r="I146" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4674,10 +4698,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="3" t="s">
+      <c r="J157" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K157" s="3" t="s">
+      <c r="K157" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4721,28 +4745,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="3">
+      <c r="A159" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="3">
+      <c r="B159" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="3">
+      <c r="C159" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D159" t="s" s="3">
+      <c r="D159" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="3">
+      <c r="E159" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="3">
+      <c r="F159" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="3">
+      <c r="G159" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="3">
+      <c r="H159" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4767,28 +4791,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="3">
+      <c r="B161" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="3">
+      <c r="C161" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="3">
+      <c r="D161" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="3">
+      <c r="E161" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="3">
+      <c r="F161" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="3">
+      <c r="G161" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="3">
+      <c r="H161" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="3">
+      <c r="I161" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4934,10 +4958,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="3" t="s">
+      <c r="J166" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="3" t="s">
+      <c r="K166" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4981,28 +5005,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="3">
+      <c r="A168" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="3">
+      <c r="B168" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="3">
+      <c r="C168" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D168" t="s" s="3">
+      <c r="D168" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="3">
+      <c r="E168" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="3">
+      <c r="F168" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="3">
+      <c r="G168" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="3">
+      <c r="H168" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5027,28 +5051,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="3">
+      <c r="B170" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="3">
+      <c r="C170" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="3">
+      <c r="D170" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="3">
+      <c r="E170" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="3">
+      <c r="F170" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="3">
+      <c r="G170" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="3">
+      <c r="H170" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="3">
+      <c r="I170" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5194,10 +5218,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="3" t="s">
+      <c r="J175" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K175" s="3" t="s">
+      <c r="K175" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5241,28 +5265,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="3">
+      <c r="A177" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="3">
+      <c r="B177" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="3">
+      <c r="C177" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D177" t="s" s="3">
+      <c r="D177" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="3">
+      <c r="E177" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="3">
+      <c r="F177" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="3">
+      <c r="G177" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="3">
+      <c r="H177" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5287,28 +5311,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="3">
+      <c r="B179" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="3">
+      <c r="C179" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="3">
+      <c r="D179" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="3">
+      <c r="E179" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="3">
+      <c r="F179" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="3">
+      <c r="G179" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="3">
+      <c r="H179" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="3">
+      <c r="I179" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5512,10 +5536,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="3" t="s">
+      <c r="J186" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="3" t="s">
+      <c r="K186" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5559,28 +5583,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="3">
+      <c r="A188" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="3">
+      <c r="B188" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="3">
+      <c r="C188" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D188" t="s" s="3">
+      <c r="D188" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="3">
+      <c r="E188" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="3">
+      <c r="F188" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="3">
+      <c r="G188" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="3">
+      <c r="H188" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5605,28 +5629,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="3">
+      <c r="B190" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="3">
+      <c r="C190" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="3">
+      <c r="D190" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="3">
+      <c r="E190" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="3">
+      <c r="F190" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="3">
+      <c r="G190" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="3">
+      <c r="H190" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="3">
+      <c r="I190" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5743,10 +5767,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="3" t="s">
+      <c r="J194" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K194" s="3" t="s">
+      <c r="K194" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5790,28 +5814,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="3">
+      <c r="A196" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="3">
+      <c r="B196" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="3">
+      <c r="C196" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D196" t="s" s="3">
+      <c r="D196" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="3">
+      <c r="E196" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="3">
+      <c r="F196" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="3">
+      <c r="G196" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="3">
+      <c r="H196" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5836,28 +5860,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="3">
+      <c r="B198" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="3">
+      <c r="C198" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="3">
+      <c r="D198" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="3">
+      <c r="E198" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="3">
+      <c r="F198" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="3">
+      <c r="G198" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="3">
+      <c r="H198" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="3">
+      <c r="I198" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5945,10 +5969,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="3" t="s">
+      <c r="J201" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K201" s="3" t="s">
+      <c r="K201" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
